--- a/TrabajoPractico1_REF_HernanDiaz/Data/Input/Celulares.xlsx
+++ b/TrabajoPractico1_REF_HernanDiaz/Data/Input/Celulares.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\Capacitación GM\Practia\Marzo2023\Archivos Prácticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UiPath\TrabajoPractico1_REF_HernanDiaz\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FE83202-4107-4B4A-A907-84ABF61157B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BB72C-2CDF-432C-B16E-D85E047720F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15660" yWindow="-11640" windowWidth="20640" windowHeight="11160" xr2:uid="{6D2BB695-4E29-4F91-9E69-F41414AC6608}"/>
+    <workbookView xWindow="5736" yWindow="1164" windowWidth="11544" windowHeight="9192" xr2:uid="{6D2BB695-4E29-4F91-9E69-F41414AC6608}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -50,10 +39,10 @@
     <t>Samsung Galaxy A04E</t>
   </si>
   <si>
-    <t>Samsung Galaxy A23</t>
-  </si>
-  <si>
     <t>ZTE Blade A52</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A22</t>
   </si>
 </sst>
 </file>
@@ -118,7 +107,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,42 +406,42 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
